--- a/demo/Results_rt/link/rt/Posthoc_2.xlsx
+++ b/demo/Results_rt/link/rt/Posthoc_2.xlsx
@@ -13,30 +13,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="30">
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
+    <t>1</t>
   </si>
   <si>
     <t>B_1</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
+    <t>2</t>
   </si>
   <si>
     <t>B_2</t>
   </si>
   <si>
-    <t>b3</t>
+    <t>3</t>
   </si>
   <si>
     <t>emmCI_1</t>
@@ -160,7 +154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="true"/>
+    <col min="1" max="1" width="2.42578125" customWidth="true"/>
     <col min="2" max="2" width="4.28515625" customWidth="true"/>
     <col min="3" max="3" width="4.28515625" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
@@ -169,10 +163,10 @@
     <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.42578125" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
     <col min="12" max="12" width="4.42578125" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="13.7109375" customWidth="true"/>
     <col min="14" max="14" width="15.5703125" customWidth="true"/>
     <col min="15" max="15" width="16" customWidth="true"/>
     <col min="16" max="16" width="11.5703125" customWidth="true"/>
@@ -183,49 +177,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -233,31 +227,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="0">
-        <v>0.066866302163186647</v>
+        <v>0.066866302180713683</v>
       </c>
       <c r="G2" s="0">
-        <v>0.13373260432637335</v>
+        <v>0.13373260436142731</v>
       </c>
       <c r="H2" s="0">
-        <v>57.355895106282276</v>
+        <v>57.355895105278364</v>
       </c>
       <c r="I2" s="0">
-        <v>20.494139997187201</v>
+        <v>20.494139996775722</v>
       </c>
       <c r="J2" s="0">
-        <v>3.3726578263878975</v>
+        <v>3.3726578259530426</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
@@ -266,46 +260,46 @@
         <v>512</v>
       </c>
       <c r="M2" s="0">
-        <v>0.1623234094906075</v>
+        <v>0.1623234094801429</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0065441147782504885</v>
+        <v>0.0065441147774122424</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="0">
-        <v>0.88325927548946415</v>
+        <v>0.88325927546990102</v>
       </c>
       <c r="G3" s="0">
-        <v>0.88325927548946415</v>
+        <v>0.88325927546990102</v>
       </c>
       <c r="H3" s="0">
-        <v>-5.2754582430000028</v>
+        <v>-5.2754582441352795</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.4702247799591304</v>
+        <v>-1.4702247802739072</v>
       </c>
       <c r="J3" s="0">
-        <v>0.021583148289671332</v>
+        <v>0.021583148296957393</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
@@ -314,13 +308,13 @@
         <v>512</v>
       </c>
       <c r="M3" s="0">
-        <v>0.012985312703707111</v>
+        <v>0.012985312705898908</v>
       </c>
       <c r="N3" s="0">
-        <v>4.2152809569006992e-05</v>
+        <v>4.2152809583236379e-05</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P3" s="0"/>
     </row>
@@ -329,31 +323,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0">
-        <v>1.6624625852673016e-05</v>
+        <v>1.6624625850428799e-05</v>
       </c>
       <c r="G4" s="0">
-        <v>8.3123129263396045e-05</v>
+        <v>8.3123129252182792e-05</v>
       </c>
       <c r="H4" s="0">
-        <v>169.86301586686761</v>
+        <v>169.86301586711051</v>
       </c>
       <c r="I4" s="0">
-        <v>60.69465782147153</v>
+        <v>60.694657821402046</v>
       </c>
       <c r="J4" s="0">
-        <v>18.90003073053078</v>
+        <v>18.900030730797845</v>
       </c>
       <c r="K4" s="0">
         <v>1</v>
@@ -362,48 +356,48 @@
         <v>512</v>
       </c>
       <c r="M4" s="0">
-        <v>0.38426096611843324</v>
+        <v>0.38426096612114813</v>
       </c>
       <c r="N4" s="0">
-        <v>0.035599980479420763</v>
+        <v>0.035599980479905896</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0">
-        <v>3.7592585883631061e-05</v>
+        <v>3.7592585879332369e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00015037034353448941</v>
+        <v>0.00015037034351728096</v>
       </c>
       <c r="H5" s="0">
-        <v>172.60173565479022</v>
+        <v>172.60173565445547</v>
       </c>
       <c r="I5" s="0">
-        <v>48.102617276962839</v>
+        <v>48.102617276816702</v>
       </c>
       <c r="J5" s="0">
-        <v>17.291347799720942</v>
+        <v>17.291347799945605</v>
       </c>
       <c r="K5" s="0">
         <v>1</v>
@@ -412,16 +406,16 @@
         <v>512</v>
       </c>
       <c r="M5" s="0">
-        <v>0.36754408536299404</v>
+        <v>0.36754408536538175</v>
       </c>
       <c r="N5" s="0">
-        <v>0.032668865402016418</v>
+        <v>0.032668865402427014</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -429,31 +423,31 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0078288553524051979</v>
+        <v>0.007828855348626507</v>
       </c>
       <c r="G6" s="0">
-        <v>0.023486566057215552</v>
+        <v>0.023486566045879509</v>
       </c>
       <c r="H6" s="0">
-        <v>112.50712076058534</v>
+        <v>112.50712076183214</v>
       </c>
       <c r="I6" s="0">
-        <v>33.363048049658481</v>
+        <v>33.363048050056236</v>
       </c>
       <c r="J6" s="0">
-        <v>7.1282792630418648</v>
+        <v>7.1282792639195671</v>
       </c>
       <c r="K6" s="0">
         <v>1</v>
@@ -462,48 +456,48 @@
         <v>512</v>
       </c>
       <c r="M6" s="0">
-        <v>0.23598661348160105</v>
+        <v>0.23598661349612951</v>
       </c>
       <c r="N6" s="0">
-        <v>0.01373124822473786</v>
+        <v>0.01373124822640537</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0">
-        <v>1.4764659048309937e-05</v>
+        <v>1.4764659027950196e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>8.8587954289898185e-05</v>
+        <v>8.858795416766263e-05</v>
       </c>
       <c r="H7" s="0">
-        <v>177.87719389779022</v>
+        <v>177.87719389859075</v>
       </c>
       <c r="I7" s="0">
-        <v>50.31254962899672</v>
+        <v>50.312549629328608</v>
       </c>
       <c r="J7" s="0">
-        <v>19.134876847977004</v>
+        <v>19.134876850707744</v>
       </c>
       <c r="K7" s="0">
         <v>1</v>
@@ -512,16 +506,16 @@
         <v>512</v>
       </c>
       <c r="M7" s="0">
-        <v>0.38664095149740713</v>
+        <v>0.38664095152499595</v>
       </c>
       <c r="N7" s="0">
-        <v>0.036026398721042463</v>
+        <v>0.036026398725998568</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/demo/Results_rt/link/rt/Posthoc_2.xlsx
+++ b/demo/Results_rt/link/rt/Posthoc_2.xlsx
@@ -21,12 +21,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>B_1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>B_2</t>
   </si>
   <si>
@@ -36,25 +36,25 @@
     <t>emmCI_1</t>
   </si>
   <si>
-    <t>5.63 (5.48, 5.79)</t>
-  </si>
-  <si>
-    <t>5.88 (5.73, 6.04)</t>
-  </si>
-  <si>
-    <t>5.82 (5.69, 5.95)</t>
-  </si>
-  <si>
-    <t>5.87 (5.72, 6.02)</t>
+    <t>307.19 (258.89, 364.50)</t>
+  </si>
+  <si>
+    <t>372.68 (319.90, 434.17)</t>
+  </si>
+  <si>
+    <t>382.12 (329.90, 442.60)</t>
+  </si>
+  <si>
+    <t>411.09 (348.09, 485.50)</t>
   </si>
   <si>
     <t>emmCI_2</t>
   </si>
   <si>
-    <t>6.11 (5.95, 6.26)</t>
-  </si>
-  <si>
-    <t>6.28 (6.14, 6.41)</t>
+    <t>504.60 (435.15, 585.13)</t>
+  </si>
+  <si>
+    <t>589.27 (507.55, 684.14)</t>
   </si>
   <si>
     <t>p</t>
@@ -157,17 +157,17 @@
     <col min="1" max="1" width="2.42578125" customWidth="true"/>
     <col min="2" max="2" width="4.28515625" customWidth="true"/>
     <col min="3" max="3" width="4.28515625" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="20.7109375" customWidth="true"/>
+    <col min="5" max="5" width="20.7109375" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
-    <col min="7" max="7" width="15.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
     <col min="12" max="12" width="4.42578125" customWidth="true"/>
     <col min="13" max="13" width="13.7109375" customWidth="true"/>
-    <col min="14" max="14" width="15.5703125" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
     <col min="15" max="15" width="16" customWidth="true"/>
     <col min="16" max="16" width="11.5703125" customWidth="true"/>
   </cols>
@@ -177,7 +177,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>4</v>
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
@@ -239,31 +239,31 @@
         <v>9</v>
       </c>
       <c r="F2" s="0">
-        <v>0.066866302180713683</v>
+        <v>0.070992758312040258</v>
       </c>
       <c r="G2" s="0">
-        <v>0.13373260436142731</v>
+        <v>0.14198551662408054</v>
       </c>
       <c r="H2" s="0">
-        <v>57.355895105278364</v>
+        <v>74.928723096544843</v>
       </c>
       <c r="I2" s="0">
-        <v>20.494139996775722</v>
+        <v>24.391669444197859</v>
       </c>
       <c r="J2" s="0">
-        <v>3.3726578259530426</v>
+        <v>3.2729577360769495</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
       </c>
       <c r="L2" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M2" s="0">
-        <v>0.1623234094801429</v>
+        <v>0.15657757613684983</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0065441147774122424</v>
+        <v>0.0060917968956939669</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>24</v>
@@ -272,13 +272,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -287,31 +287,31 @@
         <v>10</v>
       </c>
       <c r="F3" s="0">
-        <v>0.88325927546990102</v>
+        <v>0.41654477769678178</v>
       </c>
       <c r="G3" s="0">
-        <v>0.88325927546990102</v>
+        <v>0.41654477769678178</v>
       </c>
       <c r="H3" s="0">
-        <v>-5.2754582441352795</v>
+        <v>38.410536469288502</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.4702247802739072</v>
+        <v>10.306528524905421</v>
       </c>
       <c r="J3" s="0">
-        <v>0.021583148296957393</v>
+        <v>0.66107005293553966</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
       </c>
       <c r="L3" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M3" s="0">
-        <v>0.012985312705898908</v>
+        <v>0.070369280247231505</v>
       </c>
       <c r="N3" s="0">
-        <v>4.2152809583236379e-05</v>
+        <v>0.0012364282532672309</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>25</v>
@@ -335,31 +335,31 @@
         <v>12</v>
       </c>
       <c r="F4" s="0">
-        <v>1.6624625850428799e-05</v>
+        <v>1.2879796571018851e-05</v>
       </c>
       <c r="G4" s="0">
-        <v>8.3123129252182792e-05</v>
+        <v>6.4398982855040643e-05</v>
       </c>
       <c r="H4" s="0">
-        <v>169.86301586711051</v>
+        <v>197.41111513521162</v>
       </c>
       <c r="I4" s="0">
-        <v>60.694657821402046</v>
+        <v>64.263562302860151</v>
       </c>
       <c r="J4" s="0">
-        <v>18.900030730797845</v>
+        <v>19.389742808245419</v>
       </c>
       <c r="K4" s="0">
         <v>1</v>
       </c>
       <c r="L4" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M4" s="0">
-        <v>0.38426096612114813</v>
+        <v>0.38110565354359022</v>
       </c>
       <c r="N4" s="0">
-        <v>0.035599980479905896</v>
+        <v>0.035038131913775174</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>26</v>
@@ -370,7 +370,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>1</v>
@@ -385,31 +385,31 @@
         <v>13</v>
       </c>
       <c r="F5" s="0">
-        <v>3.7592585879332369e-05</v>
+        <v>2.0936123886458065e-06</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00015037034351728096</v>
+        <v>1.2561674331834638e-05</v>
       </c>
       <c r="H5" s="0">
-        <v>172.60173565445547</v>
+        <v>216.58609829965383</v>
       </c>
       <c r="I5" s="0">
-        <v>48.102617276816702</v>
+        <v>58.115585081925857</v>
       </c>
       <c r="J5" s="0">
-        <v>17.291347799945605</v>
+        <v>23.01013306563399</v>
       </c>
       <c r="K5" s="0">
         <v>1</v>
       </c>
       <c r="L5" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M5" s="0">
-        <v>0.36754408536538175</v>
+        <v>0.41516327788969942</v>
       </c>
       <c r="N5" s="0">
-        <v>0.032668865402427014</v>
+        <v>0.041310079834620608</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>26</v>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
@@ -435,31 +435,31 @@
         <v>12</v>
       </c>
       <c r="F6" s="0">
-        <v>0.007828855348626507</v>
+        <v>0.0093237571047540546</v>
       </c>
       <c r="G6" s="0">
-        <v>0.023486566045879509</v>
+        <v>0.027971271314262136</v>
       </c>
       <c r="H6" s="0">
-        <v>112.50712076183214</v>
+        <v>122.48239203866677</v>
       </c>
       <c r="I6" s="0">
-        <v>33.363048050056236</v>
+        <v>32.053507310269559</v>
       </c>
       <c r="J6" s="0">
-        <v>7.1282792639195671</v>
+        <v>6.8091076635062366</v>
       </c>
       <c r="K6" s="0">
         <v>1</v>
       </c>
       <c r="L6" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M6" s="0">
-        <v>0.23598661349612951</v>
+        <v>0.22584187341271231</v>
       </c>
       <c r="N6" s="0">
-        <v>0.01373124822640537</v>
+        <v>0.012590593551436441</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>24</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
@@ -485,31 +485,31 @@
         <v>13</v>
       </c>
       <c r="F7" s="0">
-        <v>1.4764659027950196e-05</v>
+        <v>5.1006021138684112e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>8.858795416766263e-05</v>
+        <v>0.00020402408455477694</v>
       </c>
       <c r="H7" s="0">
-        <v>177.87719389859075</v>
+        <v>178.17556183036533</v>
       </c>
       <c r="I7" s="0">
-        <v>50.312549629328608</v>
+        <v>43.342000873707057</v>
       </c>
       <c r="J7" s="0">
-        <v>19.134876850707744</v>
+        <v>16.680915777648529</v>
       </c>
       <c r="K7" s="0">
         <v>1</v>
       </c>
       <c r="L7" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M7" s="0">
-        <v>0.38664095152499595</v>
+        <v>0.35348363467406235</v>
       </c>
       <c r="N7" s="0">
-        <v>0.036026398725998568</v>
+        <v>0.030291436110678426</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>26</v>
